--- a/Project Outputs for Twintig-FCC-Metacarpal/BOM/Bill of Materials-Twintig-FCC-Metacarpal.xlsx
+++ b/Project Outputs for Twintig-FCC-Metacarpal/BOM/Bill of Materials-Twintig-FCC-Metacarpal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-FCC-Metacarpal\Project Outputs for Twintig-FCC-Metacarpal\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0DA64A-3274-4605-8AB1-44BE5A1BD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C31CC3A-BE2E-4C91-974A-577CB4DE28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{52A1DAC9-FE5F-43BB-97D8-D903243F997B}"/>
+    <workbookView xWindow="2170" yWindow="1630" windowWidth="25350" windowHeight="19120" xr2:uid="{2C99864E-73BB-4669-BF6B-D74F68ED8610}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-FCC-M" sheetId="1" r:id="rId1"/>
@@ -430,20 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9ECD70-BDAD-40BD-A872-AC465711781C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E34F0-DFD1-4E72-9655-0FC61C7457CA}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.9296875" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="87.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
